--- a/EnsembleRegressionAAPL_data_with_prediction.xlsx
+++ b/EnsembleRegressionAAPL_data_with_prediction.xlsx
@@ -645,6 +645,9 @@
       <c r="AA2">
         <v>1</v>
       </c>
+      <c r="AB2">
+        <v>0.4399577731552838</v>
+      </c>
       <c r="AC2">
         <v>0</v>
       </c>
@@ -731,6 +734,9 @@
       <c r="AA3">
         <v>0</v>
       </c>
+      <c r="AB3">
+        <v>0.4208339345754986</v>
+      </c>
       <c r="AC3">
         <v>1</v>
       </c>
@@ -820,6 +826,9 @@
       <c r="AA4">
         <v>0</v>
       </c>
+      <c r="AB4">
+        <v>0.2751194273529608</v>
+      </c>
       <c r="AC4">
         <v>1</v>
       </c>
@@ -909,6 +918,9 @@
       <c r="AA5">
         <v>1</v>
       </c>
+      <c r="AB5">
+        <v>0.3426384194471387</v>
+      </c>
       <c r="AC5">
         <v>0</v>
       </c>
@@ -998,6 +1010,9 @@
       <c r="AA6">
         <v>1</v>
       </c>
+      <c r="AB6">
+        <v>0.4052211072857823</v>
+      </c>
       <c r="AC6">
         <v>0</v>
       </c>
@@ -1086,6 +1101,9 @@
       </c>
       <c r="AA7">
         <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0.4397452894942148</v>
       </c>
       <c r="AC7">
         <v>1</v>
